--- a/05-Golf Club Demand-Finished.xlsx
+++ b/05-Golf Club Demand-Finished.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="23040" windowHeight="10500"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Example 2.6: Demand for golf clubs, page 45</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Demand</t>
-  </si>
-  <si>
-    <t>线性</t>
   </si>
   <si>
     <t>Parameters of best-fitting curves</t>
@@ -124,9 +121,6 @@
     <t>Intercept</t>
   </si>
   <si>
-    <t>指数</t>
-  </si>
-  <si>
     <t>Slope</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>MAPE</t>
-  </si>
-  <si>
-    <t>幂函数</t>
   </si>
   <si>
     <t>Profit model, using best fitting power curve for estimating demand</t>
@@ -241,7 +232,7 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +256,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -437,18 +421,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,12 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,12 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,26 +796,29 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,124 +827,121 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1"/>
@@ -992,7 +964,6 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2164,1248 +2135,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Estimation!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Demand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.326288495188101"/>
-                  <c:y val="-0.0176698745990085"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.0000_);[Red]\(#,##0.0000\)" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Estimation!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>390</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Estimation!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2023878991"/>
-        <c:axId val="700373423"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2023878991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="260"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="700373423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="700373423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="35"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2023878991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f14b03e8-1fc9-4cca-8be6-c3724e4d7b30}"/>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Estimation!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Demand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.359996937882765"/>
-                  <c:y val="-0.00738772236803733"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.0000_);[Red]\(#,##0.0000\)" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Estimation!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>390</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Estimation!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2023878991"/>
-        <c:axId val="700373423"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2023878991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="260"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="700373423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="700373423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="35"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2023878991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{fcde9343-45c7-4868-a460-9455d175dc31}"/>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="marker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Estimation!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Demand</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.411524496937883"/>
-                  <c:y val="-0.0229410906969962"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.0000_);[Red]\(#,##0.0000\)" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Estimation!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>390</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Estimation!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2023878991"/>
-        <c:axId val="700373423"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2023878991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="260"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="700373423"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="700373423"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="35"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2023878991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
-        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{652280db-aad5-4834-b24f-89a5cdb865a4}"/>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3838,7 +2567,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4104,1674 +2833,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5859,96 +2920,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246528</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>13446</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="12095480" y="107315"/>
-        <a:ext cx="4582795" cy="2797175"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="图表 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="12252325" y="6513830"/>
-        <a:ext cx="4582795" cy="2797175"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="12306300" y="3390265"/>
-        <a:ext cx="4582160" cy="2802890"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6423,10 +3394,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="AA2" sqref="AA2:AA38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4"/>
@@ -7071,12 +4042,12 @@
     <col min="16142" max="16384" width="8.77777777777778" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:17">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -7092,7 +4063,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7104,11 +4075,8 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="AA4" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -7121,7 +4089,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -7134,7 +4102,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -7147,7 +4115,7 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -7160,7 +4128,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -7173,7 +4141,7 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -7186,7 +4154,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -7199,7 +4167,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -7212,7 +4180,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -7225,7 +4193,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -7238,7 +4206,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -7251,447 +4219,439 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:17">
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="E17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="G18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
-      <c r="A19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26">
+    <row r="19" spans="1:17">
+      <c r="A19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="25">
         <v>211.31467</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f>$B$19+$B$20*B4</f>
         <v>51.73117</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <f>$B$22*B4^$B$23</f>
         <v>50.8147006486725</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <f>$B$25*EXP($B$26*B4)</f>
         <v>51.2020573325247</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="27">
         <f>ABS($C4-E19)/$C4</f>
         <v>0.149581555555556</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="27">
         <f t="shared" ref="I19:J19" si="0">ABS($C4-F19)/$C4</f>
         <v>0.1292155699705</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="27">
         <f t="shared" si="0"/>
         <v>0.137823496278327</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="AA19" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="14.55" customHeight="1" spans="1:27">
-      <c r="A20" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="26">
+    </row>
+    <row r="20" ht="14.55" customHeight="1" spans="1:17">
+      <c r="A20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="25">
         <v>-0.35463</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f t="shared" ref="E20:E30" si="1">$B$19+$B$20*B5</f>
         <v>104.92567</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <f t="shared" ref="F20:F30" si="2">$B$22*B5^$B$23</f>
         <v>110.153400202049</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <f t="shared" ref="G20:G30" si="3">$B$25*EXP($B$26*B5)</f>
         <v>106.941260187686</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <f t="shared" ref="H20:H30" si="4">ABS($C5-E20)/$C5</f>
         <v>0.0186958252427186</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f t="shared" ref="I20:I30" si="5">ABS($C5-F20)/$C5</f>
         <v>0.0694504873985341</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="27">
         <f t="shared" ref="J20:J30" si="6">ABS($C5-G20)/$C5</f>
         <v>0.0382646620163692</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21"/>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f t="shared" si="1"/>
         <v>55.27747</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <f t="shared" si="2"/>
         <v>53.0411101168416</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <f t="shared" si="3"/>
         <v>53.7788202235123</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="27">
         <f t="shared" si="4"/>
         <v>0.128111632653061</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <f t="shared" si="5"/>
         <v>0.082471635037583</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="27">
         <f t="shared" si="6"/>
         <v>0.0975269433369865</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" ht="14.55" customHeight="1" spans="1:27">
-      <c r="A22" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="29">
+    <row r="22" ht="14.55" customHeight="1" spans="1:17">
+      <c r="A22" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="28">
         <v>5871064.20311</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="26">
         <f t="shared" si="1"/>
         <v>83.64787</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <f t="shared" si="2"/>
         <v>77.7872132068881</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="26">
         <f t="shared" si="3"/>
         <v>79.6530010421691</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="27">
         <f t="shared" si="4"/>
         <v>0.0273503488372092</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <f t="shared" si="5"/>
         <v>0.0954975208501381</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="27">
         <f t="shared" si="6"/>
         <v>0.0738023134631504</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
-      <c r="A23" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="26">
+    <row r="23" spans="1:17">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25">
         <v>-1.90815</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <f t="shared" si="1"/>
         <v>108.47197</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <f t="shared" si="2"/>
         <v>117.514671243414</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="26">
         <f t="shared" si="3"/>
         <v>112.323119533249</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="27">
         <f t="shared" si="4"/>
         <v>0.13222424</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <f t="shared" si="5"/>
         <v>0.059882630052687</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="27">
         <f t="shared" si="6"/>
         <v>0.101415043734011</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24"/>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <f t="shared" si="1"/>
         <v>51.73117</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <f t="shared" si="2"/>
         <v>50.8147006486725</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="26">
         <f t="shared" si="3"/>
         <v>51.2020573325247</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="27">
         <f t="shared" si="4"/>
         <v>0.00516980769230731</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="27">
         <f t="shared" si="5"/>
         <v>0.0227942182947598</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="27">
         <f t="shared" si="6"/>
         <v>0.0153450512976019</v>
       </c>
     </row>
-    <row r="25" ht="14.55" customHeight="1" spans="1:27">
-      <c r="A25" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="26">
+    <row r="25" ht="14.55" customHeight="1" spans="1:17">
+      <c r="A25" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="25">
         <v>466.51012</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f t="shared" si="1"/>
         <v>90.74047</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="26">
         <f t="shared" si="2"/>
         <v>86.7511686649313</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="26">
         <f t="shared" si="3"/>
         <v>87.8718684880991</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="27">
         <f t="shared" si="4"/>
         <v>0.042993908045977</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <f t="shared" si="5"/>
         <v>0.00286013028814599</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="27">
         <f t="shared" si="6"/>
         <v>0.0100214768747021</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="26">
+    <row r="26" spans="1:17">
+      <c r="A26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25">
         <v>-0.00491</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f t="shared" si="1"/>
         <v>80.10157</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="26">
         <f t="shared" si="2"/>
         <v>73.824873226516</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="26">
         <f t="shared" si="3"/>
         <v>75.8365004869649</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <f t="shared" si="4"/>
         <v>0.177964264705883</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <f t="shared" si="5"/>
         <v>0.0856599003899412</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="27">
         <f t="shared" si="6"/>
         <v>0.115242654220072</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
-      <c r="E27" s="27">
+    <row r="27" spans="1:17">
+      <c r="E27" s="26">
         <f t="shared" si="1"/>
         <v>33.99967</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <f t="shared" si="2"/>
         <v>41.5601604794984</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="26">
         <f t="shared" si="3"/>
         <v>40.0560496088422</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H27" s="27">
         <f t="shared" si="4"/>
         <v>0.244451777777778</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <f t="shared" si="5"/>
         <v>0.0764408782333698</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="27">
         <f t="shared" si="6"/>
         <v>0.109865564247951</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
-      <c r="E28" s="27">
+    <row r="28" spans="1:17">
+      <c r="E28" s="26">
         <f t="shared" si="1"/>
         <v>37.54597</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <f t="shared" si="2"/>
         <v>43.1935778614598</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="26">
         <f t="shared" si="3"/>
         <v>42.0718854476506</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="27">
         <f t="shared" si="4"/>
         <v>0.1466825</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <f t="shared" si="5"/>
         <v>0.0183277758759131</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="27">
         <f t="shared" si="6"/>
         <v>0.043820785280669</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
-      <c r="E29" s="27">
+    <row r="29" spans="1:17">
+      <c r="E29" s="26">
         <f t="shared" si="1"/>
         <v>58.82377</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="26">
         <f t="shared" si="2"/>
         <v>55.4196777463233</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="26">
         <f t="shared" si="3"/>
         <v>56.4852596810733</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="27">
         <f t="shared" si="4"/>
         <v>0.0142029310344827</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <f t="shared" si="5"/>
         <v>0.0444883147185638</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="27">
         <f t="shared" si="6"/>
         <v>0.0261162123952881</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
-      <c r="E30" s="27">
+    <row r="30" spans="1:17">
+      <c r="E30" s="26">
         <f t="shared" si="1"/>
         <v>73.00897</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <f t="shared" si="2"/>
         <v>66.7693117712614</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="26">
         <f t="shared" si="3"/>
         <v>68.7433299900841</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="27">
         <f t="shared" si="4"/>
         <v>0.0736613235294118</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <f t="shared" si="5"/>
         <v>0.01809835630498</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="27">
         <f t="shared" si="6"/>
         <v>0.0109313233835902</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:17">
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:27">
-      <c r="G32" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="31">
+    <row r="32" spans="1:17">
+      <c r="G32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="30">
         <f>AVERAGE(H19:H30)</f>
         <v>0.0967575095895319</v>
       </c>
-      <c r="I32" s="31">
+      <c r="I32" s="30">
         <f t="shared" ref="I32:J32" si="7">AVERAGE(I19:I30)</f>
         <v>0.0587656181179263</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="30">
         <f t="shared" si="7"/>
         <v>0.0650146272107265</v>
-      </c>
-    </row>
-    <row r="37" spans="27:27">
-      <c r="AA37" s="20" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -7994,14 +4954,14 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <f>Estimation!B22</f>
@@ -8012,7 +4972,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <f>Estimation!B23</f>
@@ -8021,12 +4981,12 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
         <v>250</v>
@@ -8037,13 +4997,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7">
         <v>400</v>
@@ -8051,12 +5011,12 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <f>B4*B11^B5</f>
@@ -8065,7 +5025,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="9">
         <f>B14*B11</f>
@@ -8074,7 +5034,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="9">
         <f>B14*B8</f>
@@ -8083,7 +5043,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10">
         <f>B15-B16</f>
@@ -8095,13 +5055,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B20" s="9">
         <f>MAX(B26:B60)</f>
@@ -8110,7 +5070,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <f>INDEX(A26:A60,MATCH(B20,B26:B60,0),1)</f>
@@ -8119,18 +5079,18 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" s="13"/>
     </row>
@@ -8141,7 +5101,7 @@
         <v>9543.05257001159</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -8153,7 +5113,7 @@
         <v>1447.38955988464</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -8164,7 +5124,7 @@
         <v>2693.64313906428</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -8193,7 +5153,7 @@
         <v>5507.67001010245</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -8213,7 +5173,7 @@
         <v>6817.30836158726</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -8224,7 +5184,7 @@
         <v>7346.90530561036</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -8235,7 +5195,7 @@
         <v>7807.60517984383</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -8519,13 +5479,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B78" s="16">
         <v>150</v>
@@ -8545,7 +5505,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B79" s="9">
         <f>MAX(B84:B168)</f>
@@ -8570,7 +5530,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B80" s="9">
         <f>INDEX($A$84:$A$168,MATCH(B79,B84:B168,0),1)</f>
@@ -8595,7 +5555,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:6">
